--- a/REVER_DailyTracker_20200930.xlsx
+++ b/REVER_DailyTracker_20200930.xlsx
@@ -23,7 +23,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId12"/>
+    <sheet name="Balaji" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1358,6 +1358,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1412,12 +1418,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2930,9 +2930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3056,7 +3054,7 @@
       <c r="D6" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="98">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -3183,7 +3181,7 @@
       <c r="D13" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="98">
         <v>0.5</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -3202,7 +3200,7 @@
         <v>251</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="116"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
@@ -3298,34 +3296,34 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="117">
+      <c r="A20" s="99">
         <v>19</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="119">
-        <v>1</v>
-      </c>
-      <c r="F20" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="117"/>
+      <c r="E20" s="101">
+        <v>1</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="103" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="103" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3333,10 +3331,10 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="103" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3344,10 +3342,10 @@
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="103" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3355,22 +3353,22 @@
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="103" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="116">
-        <v>1</v>
-      </c>
-      <c r="F24" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="121" t="s">
+      <c r="E24" s="98">
+        <v>1</v>
+      </c>
+      <c r="F24" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="103" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3378,19 +3376,19 @@
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="103" t="s">
         <v>273</v>
       </c>
-      <c r="F25" s="121" t="s">
+      <c r="F25" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="103" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5738,13 +5736,13 @@
       <c r="B6" s="88">
         <v>44079</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="84">
@@ -5753,11 +5751,11 @@
       <c r="B7" s="88">
         <v>44049</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="84">
@@ -5871,13 +5869,13 @@
       <c r="B13" s="88">
         <v>44086</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="84">
@@ -5886,11 +5884,11 @@
       <c r="B14" s="88">
         <v>44087</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="84">
@@ -6004,13 +6002,13 @@
       <c r="B20" s="88">
         <v>44093</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="84">
@@ -6019,11 +6017,11 @@
       <c r="B21" s="88">
         <v>44094</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="84">
@@ -6274,13 +6272,13 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -6289,11 +6287,11 @@
       <c r="B7" s="19">
         <v>44049</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="29">
       <c r="A8" s="4">
@@ -6407,13 +6405,13 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -6422,11 +6420,11 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="58">
       <c r="A15" s="4">
@@ -6540,13 +6538,13 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -6555,11 +6553,11 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="115"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="43.5">
       <c r="A22" s="4">
@@ -6858,12 +6856,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -6873,10 +6871,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="115"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -6981,12 +6979,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -6996,10 +6994,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -7104,12 +7102,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -7119,10 +7117,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_20200930.xlsx
+++ b/REVER_DailyTracker_20200930.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA94D0-DA08-4EF8-8B15-E6493EFF1806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C316B9AB-F2C1-46D2-952D-2A5C69BDC856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="619" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="619" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="278">
   <si>
     <t>No</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t xml:space="preserve">Login issue only cleared  ,  working in nMVAR                    </t>
+  </si>
+  <si>
+    <t>nMvar_MNT</t>
   </si>
 </sst>
 </file>
@@ -1355,6 +1358,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1408,21 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4471,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4972,11 +4975,11 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="118"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -5147,13 +5150,13 @@
       <c r="B6" s="84">
         <v>44079</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="80">
@@ -5162,11 +5165,11 @@
       <c r="B7" s="84">
         <v>44049</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="80">
@@ -5280,13 +5283,13 @@
       <c r="B13" s="84">
         <v>44086</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="80">
@@ -5295,11 +5298,11 @@
       <c r="B14" s="84">
         <v>44087</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="80">
@@ -5413,13 +5416,13 @@
       <c r="B20" s="84">
         <v>44093</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="80">
@@ -5428,11 +5431,11 @@
       <c r="B21" s="84">
         <v>44094</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="80">
@@ -5683,13 +5686,13 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -5698,11 +5701,11 @@
       <c r="B7" s="19">
         <v>44049</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="116"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="4">
@@ -5816,13 +5819,13 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -5831,11 +5834,11 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A15" s="4">
@@ -5949,13 +5952,13 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -5964,11 +5967,11 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A22" s="4">
@@ -6146,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6267,12 +6270,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="114"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -6282,10 +6285,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="117"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -6390,12 +6393,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -6405,10 +6408,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -6513,12 +6516,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -6528,10 +6531,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
@@ -6650,10 +6653,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="19">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>35</v>
@@ -6666,6 +6669,25 @@
         <v>16</v>
       </c>
       <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" s="19">
+        <v>44104</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="E30" s="47"/>

--- a/REVER_DailyTracker_20200930.xlsx
+++ b/REVER_DailyTracker_20200930.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C316B9AB-F2C1-46D2-952D-2A5C69BDC856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A2DF8-61DF-4379-BD72-9486F9A1CC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="619" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="619" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="280">
   <si>
     <t>No</t>
   </si>
@@ -876,6 +876,12 @@
   </si>
   <si>
     <t>nMvar_MNT</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya(nMVAR_Search)</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya(nMVAR_Search, MrMax File Verification)</t>
   </si>
 </sst>
 </file>
@@ -5022,7 +5028,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5555,10 +5561,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6099,38 +6105,80 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1"/>
-    <row r="29" spans="1:7" s="1" customFormat="1"/>
+    <row r="28" spans="1:7" ht="43.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19">
+        <v>44103</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="43.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19">
+        <v>44104</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="91">
+        <v>1</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
     <row r="30" spans="1:7" s="1" customFormat="1"/>
     <row r="31" spans="1:7" s="1" customFormat="1"/>
     <row r="32" spans="1:7" s="1" customFormat="1"/>
     <row r="33" spans="2:3" s="1" customFormat="1"/>
-    <row r="36" spans="2:3">
-      <c r="C36" s="9" t="s">
+    <row r="34" spans="2:3" s="1" customFormat="1"/>
+    <row r="35" spans="2:3" s="1" customFormat="1"/>
+    <row r="38" spans="2:3">
+      <c r="C38" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="10"/>
-      <c r="C37" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" s="10"/>
+      <c r="C39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="11"/>
-      <c r="C38" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" s="11"/>
+      <c r="C40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="12"/>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="13"/>
-      <c r="C40" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" s="12"/>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="13"/>
+      <c r="C42" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6149,8 +6197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/REVER_DailyTracker_20200930.xlsx
+++ b/REVER_DailyTracker_20200930.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A2DF8-61DF-4379-BD72-9486F9A1CC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6D47B-0DFB-4478-809E-D61875DE6AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="619" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="619" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="284">
   <si>
     <t>No</t>
   </si>
@@ -882,6 +882,18 @@
   </si>
   <si>
     <t>Selenium log file count , Soniya(nMVAR_Search, MrMax File Verification)</t>
+  </si>
+  <si>
+    <t>Half a day leave</t>
+  </si>
+  <si>
+    <t>Week off</t>
+  </si>
+  <si>
+    <t>Casual Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C, Vastu and Hayaai site , Load Testing on B2C app </t>
   </si>
 </sst>
 </file>
@@ -892,7 +904,7 @@
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-14009]mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +1001,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1159,9 +1185,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1178,9 +1204,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1211,30 +1234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1307,11 +1308,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1324,22 +1325,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1364,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,6 +1434,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1716,57 +1732,57 @@
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1">
-      <c r="D2" s="24"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="20"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="46"/>
+      <c r="B5" s="33"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="48"/>
+      <c r="B6" s="35"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1792,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="13"/>
@@ -1785,13 +1801,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="G10" s="49"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="37">
         <v>44075</v>
       </c>
       <c r="C12" t="s">
@@ -1824,7 +1840,7 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="37">
         <v>44076</v>
       </c>
       <c r="C17" t="s">
@@ -1852,7 +1868,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="37">
         <v>44077</v>
       </c>
       <c r="C20" t="s">
@@ -1869,7 +1885,7 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="37">
         <v>44078</v>
       </c>
       <c r="C23" t="s">
@@ -1883,7 +1899,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1891,7 +1907,7 @@
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="37">
         <v>44081</v>
       </c>
       <c r="C26" t="s">
@@ -1908,7 +1924,7 @@
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="37">
         <v>44082</v>
       </c>
       <c r="C28" t="s">
@@ -1930,7 +1946,7 @@
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="37">
         <v>44083</v>
       </c>
       <c r="C31" t="s">
@@ -1969,7 +1985,7 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="37">
         <v>44084</v>
       </c>
       <c r="C36" t="s">
@@ -1991,7 +2007,7 @@
       <c r="A39">
         <v>9</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="37">
         <v>44085</v>
       </c>
       <c r="C39" t="s">
@@ -2016,7 +2032,7 @@
       <c r="A42">
         <v>10</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="37">
         <v>44088</v>
       </c>
       <c r="C42" t="s">
@@ -2041,7 +2057,7 @@
       <c r="A45">
         <v>11</v>
       </c>
-      <c r="B45" s="50">
+      <c r="B45" s="37">
         <v>44089</v>
       </c>
       <c r="C45" t="s">
@@ -2066,7 +2082,7 @@
       <c r="A48">
         <v>12</v>
       </c>
-      <c r="B48" s="50">
+      <c r="B48" s="37">
         <v>44090</v>
       </c>
       <c r="C48" t="s">
@@ -2083,7 +2099,7 @@
       <c r="A50">
         <v>13</v>
       </c>
-      <c r="B50" s="50">
+      <c r="B50" s="37">
         <v>44091</v>
       </c>
       <c r="C50" t="s">
@@ -2100,7 +2116,7 @@
       <c r="A52">
         <v>14</v>
       </c>
-      <c r="B52" s="50">
+      <c r="B52" s="37">
         <v>44092</v>
       </c>
       <c r="C52" t="s">
@@ -2118,11 +2134,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.8">
+    <row r="55" spans="1:7" ht="45">
       <c r="A55">
         <v>15</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="37">
         <v>44095</v>
       </c>
       <c r="C55" t="s">
@@ -2131,7 +2147,7 @@
       <c r="D55" t="s">
         <v>88</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="36" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2140,11 +2156,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8">
+    <row r="58" spans="1:7" ht="45">
       <c r="A58">
         <v>16</v>
       </c>
-      <c r="B58" s="50">
+      <c r="B58" s="37">
         <v>44096</v>
       </c>
       <c r="C58" t="s">
@@ -2153,7 +2169,7 @@
       <c r="D58" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="49" t="s">
+      <c r="G58" s="36" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2161,7 +2177,7 @@
       <c r="A60">
         <v>17</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60" s="37">
         <v>44097</v>
       </c>
       <c r="C60" t="s">
@@ -2174,41 +2190,41 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="86.4">
-      <c r="C61" s="23" t="s">
+    <row r="61" spans="1:7" ht="90">
+      <c r="C61" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="49" t="s">
+      <c r="G61" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="72">
-      <c r="A64" s="23">
+    <row r="64" spans="1:7" ht="75">
+      <c r="A64" s="22">
         <v>18</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B64" s="39">
         <v>44098</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="53" t="s">
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8">
+    <row r="66" spans="1:7" ht="30">
       <c r="A66">
         <v>19</v>
       </c>
-      <c r="B66" s="50">
+      <c r="B66" s="37">
         <v>44099</v>
       </c>
       <c r="C66" t="s">
@@ -2217,7 +2233,7 @@
       <c r="D66" t="s">
         <v>94</v>
       </c>
-      <c r="G66" s="49" t="s">
+      <c r="G66" s="36" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2250,7 +2266,7 @@
       <c r="A76">
         <v>20</v>
       </c>
-      <c r="B76" s="50">
+      <c r="B76" s="37">
         <v>44102</v>
       </c>
       <c r="C76" t="s">
@@ -2267,7 +2283,7 @@
       <c r="A78">
         <v>20</v>
       </c>
-      <c r="B78" s="50">
+      <c r="B78" s="37">
         <v>44102</v>
       </c>
       <c r="C78" t="s">
@@ -2299,7 +2315,7 @@
       <c r="A83">
         <v>21</v>
       </c>
-      <c r="B83" s="50">
+      <c r="B83" s="37">
         <v>44103</v>
       </c>
       <c r="C83" t="s">
@@ -2308,7 +2324,7 @@
       <c r="D83" t="s">
         <v>242</v>
       </c>
-      <c r="E83" s="93">
+      <c r="E83" s="80">
         <v>1</v>
       </c>
       <c r="F83" t="s">
@@ -2332,15 +2348,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2441,14 +2457,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2563,7 +2579,7 @@
       <c r="D6" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="81">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -2690,7 +2706,7 @@
       <c r="D13" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="81">
         <v>0.5</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -2709,7 +2725,7 @@
         <v>251</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="94"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
@@ -2805,34 +2821,34 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="95">
+      <c r="A20" s="82">
         <v>19</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="97">
-        <v>1</v>
-      </c>
-      <c r="F20" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="95"/>
+      <c r="E20" s="84">
+        <v>1</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="86" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2840,10 +2856,10 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="86" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2851,10 +2867,10 @@
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="86" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2862,22 +2878,22 @@
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="94">
-        <v>1</v>
-      </c>
-      <c r="F24" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="99" t="s">
+      <c r="E24" s="81">
+        <v>1</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="86" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2885,19 +2901,19 @@
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="86" t="s">
         <v>273</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="86" t="s">
         <v>274</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G25" s="86" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2914,15 +2930,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2952,10 +2968,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="47">
         <v>44046</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="75" t="s">
         <v>218</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2964,7 +2980,7 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4"/>
@@ -2973,10 +2989,10 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="47">
         <v>44046</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2994,10 +3010,10 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="47">
         <v>44047</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="75" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3015,10 +3031,10 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="47">
         <v>44047</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3036,10 +3052,10 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="47">
         <v>44048</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="75" t="s">
         <v>218</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3057,10 +3073,10 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="47">
         <v>44048</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3078,10 +3094,10 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="47">
         <v>44049</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3099,10 +3115,10 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="47">
         <v>44050</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3120,10 +3136,10 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="47">
         <v>44053</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3141,10 +3157,10 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="47">
         <v>44054</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -3162,10 +3178,10 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="47">
         <v>44055</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -3174,7 +3190,7 @@
       <c r="E12" s="4">
         <v>100</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="4"/>
@@ -3183,10 +3199,10 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="47">
         <v>44056</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -3195,7 +3211,7 @@
       <c r="E13" s="4">
         <v>100</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="4"/>
@@ -3204,10 +3220,10 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="47">
         <v>44056</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -3225,10 +3241,10 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="47">
         <v>44057</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3237,589 +3253,589 @@
       <c r="E15" s="4">
         <v>100</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="47">
         <v>44060</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E16" s="4">
         <v>100</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="47">
         <v>44061</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E17" s="4">
         <v>100</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="47">
         <v>44062</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E18" s="4">
         <v>100</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="47">
         <v>44063</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E19" s="4">
         <v>100</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="47">
         <v>44064</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E20" s="4">
         <v>100</v>
       </c>
-      <c r="F20" s="83" t="s">
+      <c r="F20" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="47">
         <v>44067</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="77" t="s">
         <v>229</v>
       </c>
       <c r="E21" s="4">
         <v>100</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="47">
         <v>44068</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="77" t="s">
         <v>229</v>
       </c>
       <c r="E22" s="4">
         <v>100</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="47">
         <v>44069</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="77" t="s">
         <v>229</v>
       </c>
       <c r="E23" s="4">
         <v>100</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="47">
         <v>44070</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E24" s="4">
         <v>100</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="F24" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="47">
         <v>44071</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E25" s="4">
         <v>100</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="60">
+      <c r="B26" s="47">
         <v>44074</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D26" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E26" s="4">
         <v>100</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="F26" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="47">
         <v>44075</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="77" t="s">
         <v>228</v>
       </c>
       <c r="E27" s="4">
         <v>100</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="60">
+      <c r="B28" s="47">
         <v>44076</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D28" s="77" t="s">
         <v>230</v>
       </c>
       <c r="E28" s="4">
         <v>100</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="47">
         <v>44077</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="77" t="s">
         <v>230</v>
       </c>
       <c r="E29" s="4">
         <v>100</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B30" s="47">
         <v>44078</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="77" t="s">
         <v>230</v>
       </c>
       <c r="E30" s="4">
         <v>100</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="60">
+      <c r="B31" s="47">
         <v>44081</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="90" t="s">
+      <c r="D31" s="77" t="s">
         <v>230</v>
       </c>
       <c r="E31" s="4">
         <v>100</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="60">
+      <c r="B32" s="47">
         <v>44082</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="90" t="s">
+      <c r="D32" s="77" t="s">
         <v>231</v>
       </c>
       <c r="E32" s="4">
         <v>100</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6">
+    <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="47">
         <v>44082</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="90" t="s">
+      <c r="D33" s="77" t="s">
         <v>232</v>
       </c>
       <c r="E33" s="4">
         <v>100</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15.6">
+    <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="60">
+      <c r="B34" s="47">
         <v>44082</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="77" t="s">
         <v>233</v>
       </c>
       <c r="E34" s="4">
         <v>100</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6">
+    <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="60">
+      <c r="B35" s="47">
         <v>44083</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="90" t="s">
+      <c r="D35" s="77" t="s">
         <v>230</v>
       </c>
       <c r="E35" s="4">
         <v>100</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15.6">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="47">
         <v>44084</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="77" t="s">
         <v>230</v>
       </c>
       <c r="E36" s="4">
         <v>100</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6">
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="47">
         <v>44088</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="90" t="s">
+      <c r="D37" s="77" t="s">
         <v>234</v>
       </c>
       <c r="E37" s="4">
         <v>100</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15.6">
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="47">
         <v>44088</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="77" t="s">
         <v>235</v>
       </c>
       <c r="E38" s="4">
         <v>100</v>
       </c>
-      <c r="F38" s="83" t="s">
+      <c r="F38" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15.6">
+    <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="60">
+      <c r="B39" s="47">
         <v>44089</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="77" t="s">
         <v>236</v>
       </c>
       <c r="E39" s="4">
         <v>100</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6">
+    <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="60">
+      <c r="B40" s="47">
         <v>44090</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="90" t="s">
+      <c r="D40" s="77" t="s">
         <v>236</v>
       </c>
       <c r="E40" s="4">
         <v>100</v>
       </c>
-      <c r="F40" s="83" t="s">
+      <c r="F40" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="47">
         <v>44091</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="77" t="s">
         <v>236</v>
       </c>
       <c r="E41" s="4">
         <v>100</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6">
+    <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="60">
+      <c r="B42" s="47">
         <v>44092</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="77" t="s">
         <v>236</v>
       </c>
       <c r="E42" s="4">
         <v>100</v>
       </c>
-      <c r="F42" s="83" t="s">
+      <c r="F42" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6">
+    <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="60">
+      <c r="B43" s="47">
         <v>44095</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="77" t="s">
         <v>230</v>
       </c>
       <c r="E43" s="4">
@@ -3830,23 +3846,23 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6">
+    <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="60">
+      <c r="B44" s="47">
         <v>44096</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="77" t="s">
         <v>230</v>
       </c>
       <c r="E44" s="4">
         <v>100</v>
       </c>
-      <c r="F44" s="83" t="s">
+      <c r="F44" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="4"/>
@@ -3855,10 +3871,10 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="47">
         <v>44097</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="76" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -3876,10 +3892,10 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="60">
+      <c r="B46" s="47">
         <v>44098</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="76" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -3897,10 +3913,10 @@
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="60">
+      <c r="B47" s="47">
         <v>44099</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="C47" s="76" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -3909,22 +3925,22 @@
       <c r="E47" s="4">
         <v>100</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="F47" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="15.6">
+    <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="60">
+      <c r="B48" s="47">
         <v>44100</v>
       </c>
-      <c r="C48" s="89" t="s">
+      <c r="C48" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="77" t="s">
         <v>236</v>
       </c>
       <c r="E48" s="4">
@@ -3935,23 +3951,23 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="15.6">
+    <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="60">
+      <c r="B49" s="47">
         <v>44101</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="77" t="s">
         <v>236</v>
       </c>
       <c r="E49" s="4">
         <v>100</v>
       </c>
-      <c r="F49" s="83" t="s">
+      <c r="F49" s="70" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="4"/>
@@ -3970,15 +3986,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3994,7 +4010,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -4008,7 +4024,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="47">
         <v>44075</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4017,10 +4033,10 @@
       <c r="D2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="65">
-        <v>1</v>
-      </c>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="52">
+        <v>1</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -4031,7 +4047,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="47">
         <v>44076</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -4040,7 +4056,7 @@
       <c r="D3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="52">
         <v>0.8</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -4052,16 +4068,16 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="48">
         <v>44077</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="59" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="53">
         <v>0.4</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -4069,10 +4085,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="74">
+      <c r="A5" s="61">
         <v>4</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="48">
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4081,7 +4097,7 @@
       <c r="D5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="53">
         <v>0.8</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -4089,10 +4105,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="74">
+      <c r="A6" s="61">
         <v>5</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="48">
         <v>44081</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4101,7 +4117,7 @@
       <c r="D6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="53">
         <v>0.6</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -4109,10 +4125,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="74">
+      <c r="A7" s="61">
         <v>6</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="48">
         <v>44082</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4121,7 +4137,7 @@
       <c r="D7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="53">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -4129,10 +4145,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="74">
+      <c r="A8" s="61">
         <v>7</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="48">
         <v>44083</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4141,7 +4157,7 @@
       <c r="D8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="53">
         <v>0.4</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -4149,10 +4165,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="74">
-        <v>8</v>
-      </c>
-      <c r="B9" s="61">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="48">
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4161,7 +4177,7 @@
       <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="53">
         <v>0.6</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -4169,10 +4185,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="74">
+      <c r="A10" s="61">
         <v>9</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="48">
         <v>44085</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4181,7 +4197,7 @@
       <c r="D10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="53">
         <v>0.8</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -4192,10 +4208,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="74">
+      <c r="A11" s="61">
         <v>10</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="48">
         <v>44088</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4204,7 +4220,7 @@
       <c r="D11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="53">
         <v>0.6</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -4212,10 +4228,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="74">
+      <c r="A12" s="61">
         <v>11</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="48">
         <v>44089</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4224,7 +4240,7 @@
       <c r="D12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="53">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -4232,10 +4248,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
-      <c r="A13" s="74">
+      <c r="A13" s="61">
         <v>12</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="48">
         <v>44090</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4244,7 +4260,7 @@
       <c r="D13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="53">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -4252,10 +4268,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="74">
+      <c r="A14" s="61">
         <v>13</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="48">
         <v>44091</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4264,7 +4280,7 @@
       <c r="D14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="53">
         <v>0.7</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -4272,19 +4288,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
-      <c r="A15" s="74">
+      <c r="A15" s="61">
         <v>14</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="49">
         <v>44092</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="60" t="s">
         <v>153</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="52">
         <v>0.8</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -4292,19 +4308,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
-      <c r="A16" s="74">
+      <c r="A16" s="61">
         <v>15</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="48">
         <v>44093</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="59" t="s">
         <v>153</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="53">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -4312,10 +4328,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="74">
+      <c r="A17" s="61">
         <v>16</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="49">
         <v>44095</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4324,27 +4340,27 @@
       <c r="D17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="52">
         <v>0.7</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="28.8">
-      <c r="A18" s="74">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="30">
+      <c r="A18" s="61">
         <v>17</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="48">
         <v>44096</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="53">
         <v>0.7</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -4352,10 +4368,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="74">
+      <c r="A19" s="61">
         <v>18</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="48">
         <v>44097</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4364,7 +4380,7 @@
       <c r="D19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="53">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -4380,16 +4396,16 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="37">
         <v>44098</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="56" t="s">
         <v>153</v>
       </c>
       <c r="D21" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="55">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -4401,7 +4417,7 @@
       <c r="D22" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="55">
         <v>0.6</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -4412,7 +4428,7 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="57">
         <v>44099</v>
       </c>
       <c r="C23" t="s">
@@ -4421,7 +4437,7 @@
       <c r="D23" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="55">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -4432,7 +4448,7 @@
       <c r="D24" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="55">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -4443,7 +4459,7 @@
       <c r="D25" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="55">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -4454,16 +4470,16 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="70">
+      <c r="B27" s="57">
         <v>44102</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="55">
         <v>0.5</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -4484,523 +4500,523 @@
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19">
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
         <v>44075</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.2">
-      <c r="A3" s="18">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="45">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>44076</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.2">
-      <c r="A4" s="18">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="45">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>44077</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
-      <c r="A5" s="18">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>44078</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>0.4</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>44081</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>0.75</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="28.8">
-      <c r="A7" s="18">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>44082</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>0.85</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
-      <c r="A8" s="18">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>44083</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="57" t="s">
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
         <v>44084</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>44085</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>0.7</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>44088</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>0.75</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>44089</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>0.8</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="28.8">
-      <c r="A13" s="18">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>44090</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>0.85</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>44091</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>0.95</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>44092</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="58" t="s">
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="28.8">
-      <c r="A16" s="18">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>44095</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>0.6</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="43.2">
-      <c r="A17" s="18">
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>44096</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>44097</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="20">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>44098</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>0.35</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>44099</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>0.7</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="92">
+      <c r="B21" s="79">
         <v>44102</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
-      <c r="B22" s="92">
+      <c r="B22" s="79">
         <v>44103</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>0.3</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
-      <c r="B23" s="92">
+      <c r="B23" s="79">
         <v>44104</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>0.5</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="46"/>
+      <c r="B26" s="33"/>
       <c r="C26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="48"/>
+      <c r="B27" s="35"/>
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -5031,15 +5047,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5066,487 +5082,487 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="80">
-        <v>1</v>
-      </c>
-      <c r="B2" s="84">
+      <c r="A2" s="67">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71">
         <v>44075</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="82">
-        <v>1</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="80"/>
+      <c r="E2" s="69">
+        <v>1</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80">
+      <c r="A3" s="67">
         <v>2</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="71">
         <v>44076</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="82">
-        <v>1</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="80"/>
+      <c r="E3" s="69">
+        <v>1</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
-      <c r="A4" s="80">
+      <c r="A4" s="67">
         <v>3</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="71">
         <v>44077</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="74">
         <v>0.5</v>
       </c>
-      <c r="F4" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="80"/>
+      <c r="F4" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="80">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="71">
         <v>44078</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="82">
-        <v>1</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="80"/>
+      <c r="E5" s="69">
+        <v>1</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="80">
+      <c r="A6" s="67">
         <v>5</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="71">
         <v>44079</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="80">
+      <c r="A7" s="67">
         <v>6</v>
       </c>
-      <c r="B7" s="84">
+      <c r="B7" s="71">
         <v>44049</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="110"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="80">
+      <c r="A8" s="67">
         <v>7</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="71">
         <v>44081</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="82">
-        <v>1</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="80"/>
+      <c r="E8" s="69">
+        <v>1</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="67"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="80">
-        <v>8</v>
-      </c>
-      <c r="B9" s="84">
+      <c r="A9" s="67">
+        <v>8</v>
+      </c>
+      <c r="B9" s="71">
         <v>44082</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="82">
-        <v>1</v>
-      </c>
-      <c r="F9" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="80"/>
+      <c r="E9" s="69">
+        <v>1</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="80">
+      <c r="A10" s="67">
         <v>9</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="71">
         <v>44083</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="82">
-        <v>1</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="80"/>
+      <c r="E10" s="69">
+        <v>1</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="80">
+      <c r="A11" s="67">
         <v>10</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="71">
         <v>44084</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="82">
-        <v>1</v>
-      </c>
-      <c r="F11" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="80"/>
+      <c r="E11" s="69">
+        <v>1</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="80">
+      <c r="A12" s="67">
         <v>11</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="71">
         <v>44085</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="82">
-        <v>1</v>
-      </c>
-      <c r="F12" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="80"/>
+      <c r="E12" s="69">
+        <v>1</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
-      <c r="A13" s="80">
+      <c r="A13" s="67">
         <v>12</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="71">
         <v>44086</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="80">
+      <c r="A14" s="67">
         <v>13</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="71">
         <v>44087</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
-      <c r="A15" s="80">
+      <c r="A15" s="67">
         <v>14</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="71">
         <v>44088</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="E15" s="82">
-        <v>1</v>
-      </c>
-      <c r="F15" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="80"/>
+      <c r="E15" s="69">
+        <v>1</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
-      <c r="A16" s="80">
+      <c r="A16" s="67">
         <v>15</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="71">
         <v>44089</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="82">
-        <v>1</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="80"/>
+      <c r="E16" s="69">
+        <v>1</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1">
-      <c r="A17" s="80">
+      <c r="A17" s="67">
         <v>16</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="71">
         <v>44090</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="82">
-        <v>1</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="80"/>
+      <c r="E17" s="69">
+        <v>1</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1">
-      <c r="A18" s="80">
+      <c r="A18" s="67">
         <v>17</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="71">
         <v>44091</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="82">
-        <v>1</v>
-      </c>
-      <c r="F18" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="80"/>
+      <c r="E18" s="69">
+        <v>1</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="67"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="80">
+      <c r="A19" s="67">
         <v>18</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="71">
         <v>44092</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="82">
-        <v>1</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="80"/>
+      <c r="E19" s="69">
+        <v>1</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="80">
+      <c r="A20" s="67">
         <v>19</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="71">
         <v>44093</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="107"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="80">
+      <c r="A21" s="67">
         <v>20</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="71">
         <v>44094</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="80">
+      <c r="A22" s="67">
         <v>21</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="71">
         <v>44095</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="E22" s="82">
-        <v>1</v>
-      </c>
-      <c r="F22" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="80"/>
+      <c r="E22" s="69">
+        <v>1</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="80">
+      <c r="A23" s="67">
         <v>22</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="71">
         <v>44096</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="E23" s="87">
-        <v>1</v>
-      </c>
-      <c r="F23" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="80"/>
+      <c r="E23" s="74">
+        <v>1</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="80">
+      <c r="A24" s="67">
         <v>23</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="71">
         <v>44097</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="82">
-        <v>1</v>
-      </c>
-      <c r="F24" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="80"/>
+      <c r="E24" s="69">
+        <v>1</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="80">
+      <c r="A25" s="67">
         <v>24</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="71">
         <v>44098</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="82">
-        <v>1</v>
-      </c>
-      <c r="F25" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="80"/>
+      <c r="E25" s="69">
+        <v>1</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="80">
+      <c r="A26" s="67">
         <v>25</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="71">
         <v>44099</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="E26" s="82">
-        <v>1</v>
-      </c>
-      <c r="F26" s="81" t="s">
+      <c r="E26" s="69">
+        <v>1</v>
+      </c>
+      <c r="F26" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="80"/>
+      <c r="G26" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5563,19 +5579,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5605,82 +5621,82 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>44075</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="62" t="s">
         <v>170</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>44076</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="62" t="s">
         <v>172</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>44077</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="64">
         <v>0.5</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="65" t="s">
         <v>175</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>44078</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="41" t="s">
         <v>176</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="4"/>
@@ -5689,131 +5705,131 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>44079</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>44049</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="116"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>44081</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="41" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>44082</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="41" t="s">
         <v>180</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>44083</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="41" t="s">
         <v>182</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>44084</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="41" t="s">
         <v>183</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>44085</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="41" t="s">
         <v>184</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="4"/>
@@ -5822,131 +5838,131 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>44086</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>44087</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>44088</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="41" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>44089</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="41" t="s">
         <v>187</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>44090</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>44091</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="41" t="s">
         <v>189</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>44092</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="41" t="s">
         <v>190</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="4"/>
@@ -5955,194 +5971,194 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>44093</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>44094</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>44095</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="41" t="s">
         <v>192</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>44096</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="64">
         <v>0.5</v>
       </c>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="66" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>44097</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="41" t="s">
         <v>195</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>44098</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>44099</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="41" t="s">
         <v>198</v>
       </c>
       <c r="E26" s="6">
         <v>0.5</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="66" t="s">
         <v>175</v>
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="43.2">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>44102</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="91">
-        <v>1</v>
-      </c>
-      <c r="F27" s="76" t="s">
+      <c r="E27" s="78">
+        <v>1</v>
+      </c>
+      <c r="F27" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="43.2">
+    <row r="28" spans="1:7" ht="60">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>44103</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="91">
+      <c r="E28" s="78">
         <v>0.5</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="66" t="s">
         <v>175</v>
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="43.2">
+    <row r="29" spans="1:7" ht="60">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>44104</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="E29" s="91">
-        <v>1</v>
-      </c>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="78">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="4"/>
@@ -6201,37 +6217,37 @@
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6239,17 +6255,17 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>44075</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="4"/>
@@ -6258,17 +6274,17 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>44076</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="4"/>
@@ -6277,17 +6293,17 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>44077</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="44" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4"/>
@@ -6296,17 +6312,17 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>44078</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4"/>
@@ -6315,45 +6331,45 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>44079</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>44080</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>44081</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="44" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="4"/>
@@ -6362,17 +6378,17 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>44082</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="44" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="4"/>
@@ -6381,17 +6397,17 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>44083</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="4"/>
@@ -6400,17 +6416,17 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>44084</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="44" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="4"/>
@@ -6419,17 +6435,17 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>44085</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="4"/>
@@ -6438,45 +6454,45 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>44086</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>44087</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>44088</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="4"/>
@@ -6485,17 +6501,17 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>44089</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="4"/>
@@ -6504,17 +6520,17 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>44090</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="44" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="4"/>
@@ -6523,17 +6539,17 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>44091</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="4"/>
@@ -6542,17 +6558,17 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>44092</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="29"/>
+      <c r="F19" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="4"/>
@@ -6561,45 +6577,45 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>44093</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>44094</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>44095</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43" t="s">
+      <c r="E22" s="29"/>
+      <c r="F22" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="4"/>
@@ -6608,17 +6624,17 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>44096</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43" t="s">
+      <c r="E23" s="29"/>
+      <c r="F23" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4"/>
@@ -6627,17 +6643,17 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>44097</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43" t="s">
+      <c r="E24" s="29"/>
+      <c r="F24" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="4"/>
@@ -6646,17 +6662,17 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>44098</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43" t="s">
+      <c r="E25" s="29"/>
+      <c r="F25" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="4"/>
@@ -6665,17 +6681,17 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>44099</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="44" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="4"/>
@@ -6684,17 +6700,17 @@
       <c r="A27">
         <v>28</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>44102</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="44" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G27" s="4"/>
@@ -6703,17 +6719,17 @@
       <c r="A28">
         <v>29</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>44103</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43" t="s">
+      <c r="E28" s="29"/>
+      <c r="F28" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="4"/>
@@ -6722,37 +6738,37 @@
       <c r="A29">
         <v>30</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>44104</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="E30" s="47"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="49" spans="3:4">
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="46"/>
+      <c r="C50" s="33"/>
       <c r="D50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="48"/>
+      <c r="C51" s="35"/>
       <c r="D51" t="s">
         <v>7</v>
       </c>
@@ -6788,15 +6804,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6893,503 +6909,679 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="94.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="94.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="94.6640625" style="26"/>
+    <col min="1" max="1" width="3.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="94.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="110" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
         <v>44075</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="15"/>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>44076</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" s="29" customFormat="1">
-      <c r="A4" s="15">
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" s="25" customFormat="1">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>44077</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" s="29" customFormat="1">
-      <c r="A5" s="15">
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="25" customFormat="1">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>44078</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" s="29" customFormat="1">
-      <c r="A6" s="15">
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="25" customFormat="1">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
+        <v>44079</v>
+      </c>
+      <c r="C6" s="111"/>
+      <c r="D6" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="25" customFormat="1">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>44080</v>
+      </c>
+      <c r="C7" s="111"/>
+      <c r="D7" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="25" customFormat="1">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
         <v>44081</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C8" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D8" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7" s="29" customFormat="1">
-      <c r="A7" s="15">
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="25" customFormat="1">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>44082</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="25" customFormat="1">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44083</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="25" customFormat="1">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>44084</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="25" customFormat="1">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>44085</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="25" customFormat="1">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>44086</v>
+      </c>
+      <c r="C13" s="111"/>
+      <c r="D13" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>44087</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>44088</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>44089</v>
+      </c>
+      <c r="C16" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>44090</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>44091</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>44092</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>44093</v>
+      </c>
+      <c r="C20" s="111"/>
+      <c r="D20" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>44094</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>44095</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>44096</v>
+      </c>
+      <c r="C23" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>44097</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>44098</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15">
+        <v>44099</v>
+      </c>
+      <c r="C26" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>44100</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
+        <v>44101</v>
+      </c>
+      <c r="C28" s="111"/>
+      <c r="D28" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>44102</v>
+      </c>
+      <c r="C29" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>44103</v>
+      </c>
+      <c r="C30" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>44104</v>
+      </c>
+      <c r="C31" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" s="116"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33"/>
+      <c r="B33" s="10"/>
+      <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" s="29" customFormat="1">
-      <c r="A8" s="15">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
-        <v>44083</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" s="29" customFormat="1">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16">
-        <v>44084</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:7" s="29" customFormat="1">
-      <c r="A10" s="15">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35"/>
+      <c r="B35" s="12"/>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36"/>
+      <c r="B36" s="13"/>
+      <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
-        <v>44085</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7" s="29" customFormat="1">
-      <c r="A11" s="15">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16">
-        <v>44088</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" s="29" customFormat="1">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16">
-        <v>44089</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" s="29" customFormat="1">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16">
-        <v>44090</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16">
-        <v>44091</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16">
-        <v>44092</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="17">
-        <v>1</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="15">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16">
-        <v>44095</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16">
-        <v>44096</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16">
-        <v>44097</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16">
-        <v>44098</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16">
-        <v>44099</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="17">
-        <v>1</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16">
-        <v>44102</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="17">
-        <v>1</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="31"/>
-      <c r="C24" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="33"/>
-      <c r="C26" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="34"/>
-      <c r="C27" s="26" t="s">
-        <v>9</v>
-      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_20200930.xlsx
+++ b/REVER_DailyTracker_20200930.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6D47B-0DFB-4478-809E-D61875DE6AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0395086-BF07-4882-A640-BC2AE04DCAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="619" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="619" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="286">
   <si>
     <t>No</t>
   </si>
@@ -894,6 +894,13 @@
   </si>
   <si>
     <t xml:space="preserve">Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C, Vastu and Hayaai site , Load Testing on B2C app </t>
+  </si>
+  <si>
+    <t>SchedulingReport Daily</t>
+  </si>
+  <si>
+    <t>For SchedulingReport daily task, categorizing files types done, files merging done, and converting csv done, csv uploading process 
+is work in progress(customizing for 11 files)</t>
   </si>
 </sst>
 </file>
@@ -1380,6 +1387,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1434,21 +1456,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,21 +1733,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2134,7 +2141,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45">
+    <row r="55" spans="1:7" ht="28.8">
       <c r="A55">
         <v>15</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="45">
+    <row r="58" spans="1:7" ht="28.8">
       <c r="A58">
         <v>16</v>
       </c>
@@ -2190,7 +2197,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="90">
+    <row r="61" spans="1:7" ht="86.4">
       <c r="C61" s="22" t="s">
         <v>94</v>
       </c>
@@ -2201,7 +2208,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="75">
+    <row r="64" spans="1:7" ht="72">
       <c r="A64" s="22">
         <v>18</v>
       </c>
@@ -2220,7 +2227,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="28.8">
       <c r="A66">
         <v>19</v>
       </c>
@@ -2332,6 +2339,29 @@
       </c>
       <c r="G83" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="28.8">
+      <c r="A86">
+        <v>22</v>
+      </c>
+      <c r="B86" s="37">
+        <v>44104</v>
+      </c>
+      <c r="C86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="36" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2348,15 +2378,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2457,14 +2487,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2930,15 +2960,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3258,7 +3288,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3279,7 +3309,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3300,7 +3330,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3321,7 +3351,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3342,7 +3372,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3363,7 +3393,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3384,7 +3414,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3405,7 +3435,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3426,7 +3456,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3447,7 +3477,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3468,7 +3498,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3489,7 +3519,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3510,7 +3540,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3531,7 +3561,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3552,7 +3582,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3573,7 +3603,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3594,7 +3624,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3615,7 +3645,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3636,7 +3666,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="15.6">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3657,7 +3687,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3678,7 +3708,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="15.6">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3699,7 +3729,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="15.6">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3720,7 +3750,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="15.6">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3741,7 +3771,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="15.6">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3762,7 +3792,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="15.6">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3783,7 +3813,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3804,7 +3834,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="15.6">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3825,7 +3855,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="15.6">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3846,7 +3876,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="15.6">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3930,7 +3960,7 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="15.6">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3951,7 +3981,7 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="15.6">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3986,15 +4016,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4347,7 +4377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="30">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="28.8">
       <c r="A18" s="61">
         <v>17</v>
       </c>
@@ -4500,15 +4530,15 @@
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4534,7 +4564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -4555,7 +4585,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="45">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -4576,7 +4606,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="45">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4597,7 +4627,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4639,7 +4669,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -4660,7 +4690,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -4765,7 +4795,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -4828,7 +4858,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -4849,7 +4879,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="45">
+    <row r="17" spans="1:7" ht="43.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -5047,15 +5077,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5172,13 +5202,13 @@
       <c r="B6" s="71">
         <v>44079</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="67">
@@ -5187,11 +5217,11 @@
       <c r="B7" s="71">
         <v>44049</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="67">
@@ -5305,13 +5335,13 @@
       <c r="B13" s="71">
         <v>44086</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="67">
@@ -5320,11 +5350,11 @@
       <c r="B14" s="71">
         <v>44087</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="67">
@@ -5438,13 +5468,13 @@
       <c r="B20" s="71">
         <v>44093</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="67">
@@ -5453,11 +5483,11 @@
       <c r="B21" s="71">
         <v>44094</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="67">
@@ -5583,15 +5613,15 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5638,7 +5668,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="28.8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5659,7 +5689,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5680,7 +5710,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5708,13 +5738,13 @@
       <c r="B6" s="18">
         <v>44079</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -5723,13 +5753,13 @@
       <c r="B7" s="18">
         <v>44049</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="45">
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5750,7 +5780,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5771,7 +5801,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5792,7 +5822,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5813,7 +5843,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5841,13 +5871,13 @@
       <c r="B13" s="18">
         <v>44086</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -5856,13 +5886,13 @@
       <c r="B14" s="18">
         <v>44087</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="75">
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5883,7 +5913,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="75">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5904,7 +5934,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="75">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5925,7 +5955,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="75">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5946,7 +5976,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="75">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5974,13 +6004,13 @@
       <c r="B20" s="18">
         <v>44093</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -5989,13 +6019,13 @@
       <c r="B21" s="18">
         <v>44094</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="60">
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -6016,7 +6046,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6037,7 +6067,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -6058,7 +6088,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6079,7 +6109,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -6100,7 +6130,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="43.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6121,7 +6151,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="60">
+    <row r="28" spans="1:7" ht="43.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6142,7 +6172,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="60">
+    <row r="29" spans="1:7" ht="43.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6217,15 +6247,15 @@
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6334,12 +6364,12 @@
       <c r="B6" s="18">
         <v>44079</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -6349,10 +6379,10 @@
       <c r="B7" s="18">
         <v>44080</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -6457,12 +6487,12 @@
       <c r="B13" s="18">
         <v>44086</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -6472,10 +6502,10 @@
       <c r="B14" s="18">
         <v>44087</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -6580,12 +6610,12 @@
       <c r="B20" s="18">
         <v>44093</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="106"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -6595,10 +6625,10 @@
       <c r="B21" s="18">
         <v>44094</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
@@ -6804,15 +6834,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6911,42 +6941,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="94.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="94.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="94.7109375" style="24"/>
+    <col min="8" max="16384" width="94.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="92" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6957,10 +6987,10 @@
       <c r="B2" s="15">
         <v>44075</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="16">
@@ -6978,10 +7008,10 @@
       <c r="B3" s="15">
         <v>44076</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="16">
@@ -6999,10 +7029,10 @@
       <c r="B4" s="15">
         <v>44077</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="16">
@@ -7011,7 +7041,7 @@
       <c r="F4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="94" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7022,10 +7052,10 @@
       <c r="B5" s="15">
         <v>44078</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="16">
@@ -7043,8 +7073,8 @@
       <c r="B6" s="15">
         <v>44079</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="113" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="95" t="s">
         <v>281</v>
       </c>
       <c r="E6" s="16"/>
@@ -7058,8 +7088,8 @@
       <c r="B7" s="15">
         <v>44080</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="113" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="95" t="s">
         <v>281</v>
       </c>
       <c r="E7" s="16"/>
@@ -7073,10 +7103,10 @@
       <c r="B8" s="15">
         <v>44081</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="16">
@@ -7094,10 +7124,10 @@
       <c r="B9" s="15">
         <v>44082</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="16">
@@ -7115,10 +7145,10 @@
       <c r="B10" s="15">
         <v>44083</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="16">
@@ -7136,10 +7166,10 @@
       <c r="B11" s="15">
         <v>44084</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="16">
@@ -7157,10 +7187,10 @@
       <c r="B12" s="15">
         <v>44085</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="16">
@@ -7178,8 +7208,8 @@
       <c r="B13" s="15">
         <v>44086</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="113" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="95" t="s">
         <v>281</v>
       </c>
       <c r="E13" s="16"/>
@@ -7193,8 +7223,8 @@
       <c r="B14" s="15">
         <v>44087</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="113" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="95" t="s">
         <v>281</v>
       </c>
       <c r="E14" s="16"/>
@@ -7208,10 +7238,10 @@
       <c r="B15" s="15">
         <v>44088</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="16">
@@ -7229,10 +7259,10 @@
       <c r="B16" s="15">
         <v>44089</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="16">
@@ -7250,8 +7280,8 @@
       <c r="B17" s="15">
         <v>44090</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="113" t="s">
+      <c r="C17" s="93"/>
+      <c r="D17" s="95" t="s">
         <v>282</v>
       </c>
       <c r="E17" s="16"/>
@@ -7265,10 +7295,10 @@
       <c r="B18" s="15">
         <v>44091</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="16">
@@ -7286,10 +7316,10 @@
       <c r="B19" s="15">
         <v>44092</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="93" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="16">
@@ -7307,8 +7337,8 @@
       <c r="B20" s="15">
         <v>44093</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="113" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="95" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="16"/>
@@ -7322,8 +7352,8 @@
       <c r="B21" s="15">
         <v>44094</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="113" t="s">
+      <c r="C21" s="93"/>
+      <c r="D21" s="95" t="s">
         <v>281</v>
       </c>
       <c r="E21" s="16"/>
@@ -7337,10 +7367,10 @@
       <c r="B22" s="15">
         <v>44095</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="93" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="16">
@@ -7358,10 +7388,10 @@
       <c r="B23" s="15">
         <v>44096</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="93" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="16">
@@ -7379,10 +7409,10 @@
       <c r="B24" s="15">
         <v>44097</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="93" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="16">
@@ -7400,10 +7430,10 @@
       <c r="B25" s="15">
         <v>44098</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="93" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="16">
@@ -7421,10 +7451,10 @@
       <c r="B26" s="15">
         <v>44099</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="93" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="16">
@@ -7442,8 +7472,8 @@
       <c r="B27" s="15">
         <v>44100</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="113" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="95" t="s">
         <v>281</v>
       </c>
       <c r="E27" s="16"/>
@@ -7457,8 +7487,8 @@
       <c r="B28" s="15">
         <v>44101</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="113" t="s">
+      <c r="C28" s="93"/>
+      <c r="D28" s="95" t="s">
         <v>281</v>
       </c>
       <c r="E28" s="16"/>
@@ -7472,10 +7502,10 @@
       <c r="B29" s="15">
         <v>44102</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="93" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="16">
@@ -7493,10 +7523,10 @@
       <c r="B30" s="15">
         <v>44103</v>
       </c>
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="93" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="16">
@@ -7507,23 +7537,23 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="28.8">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="15">
         <v>44104</v>
       </c>
-      <c r="C31" s="111" t="s">
+      <c r="C31" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="96" t="s">
         <v>283</v>
       </c>
       <c r="E31" s="16">
         <v>0.5</v>
       </c>
-      <c r="F31" s="115" t="s">
+      <c r="F31" s="97" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="4"/>
@@ -7536,7 +7566,7 @@
       </c>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="116"/>
+      <c r="F32" s="98"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7">

--- a/REVER_DailyTracker_20200930.xlsx
+++ b/REVER_DailyTracker_20200930.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0395086-BF07-4882-A640-BC2AE04DCAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B76636-75A6-4374-857B-228104DDE1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="619" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="619" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="288">
   <si>
     <t>No</t>
   </si>
@@ -901,6 +901,12 @@
   <si>
     <t>For SchedulingReport daily task, categorizing files types done, files merging done, and converting csv done, csv uploading process 
 is work in progress(customizing for 11 files)</t>
+  </si>
+  <si>
+    <t>Checking Mr max Import issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Added New Service Center SSC11</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1186,6 +1192,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1194,7 +1211,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1456,6 +1473,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1735,19 +1754,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2141,7 +2160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.8">
+    <row r="55" spans="1:7" ht="45">
       <c r="A55">
         <v>15</v>
       </c>
@@ -2163,7 +2182,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8">
+    <row r="58" spans="1:7" ht="45">
       <c r="A58">
         <v>16</v>
       </c>
@@ -2197,7 +2216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="86.4">
+    <row r="61" spans="1:7" ht="90">
       <c r="C61" s="22" t="s">
         <v>94</v>
       </c>
@@ -2208,7 +2227,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="72">
+    <row r="64" spans="1:7" ht="75">
       <c r="A64" s="22">
         <v>18</v>
       </c>
@@ -2227,7 +2246,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8">
+    <row r="66" spans="1:7" ht="30">
       <c r="A66">
         <v>19</v>
       </c>
@@ -2341,7 +2360,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="28.8">
+    <row r="86" spans="1:7" ht="45">
       <c r="A86">
         <v>22</v>
       </c>
@@ -2378,15 +2397,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2487,14 +2506,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2954,21 +2973,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3288,7 +3307,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3309,7 +3328,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3330,7 +3349,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3351,7 +3370,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3372,7 +3391,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3393,7 +3412,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3414,7 +3433,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3435,7 +3454,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3456,7 +3475,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3477,7 +3496,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3498,7 +3517,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3519,7 +3538,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3540,7 +3559,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3561,7 +3580,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3582,7 +3601,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3603,7 +3622,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3624,7 +3643,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3645,7 +3664,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6">
+    <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3666,7 +3685,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15.6">
+    <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3687,7 +3706,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6">
+    <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3708,7 +3727,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15.6">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3729,7 +3748,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6">
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3750,7 +3769,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15.6">
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3771,7 +3790,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15.6">
+    <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3792,7 +3811,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6">
+    <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3813,7 +3832,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3834,7 +3853,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6">
+    <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3855,7 +3874,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6">
+    <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3876,7 +3895,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6">
+    <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3960,7 +3979,7 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="15.6">
+    <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3981,7 +4000,7 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="15.6">
+    <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4001,6 +4020,46 @@
         <v>8</v>
       </c>
       <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="118">
+        <v>49</v>
+      </c>
+      <c r="B50" s="47">
+        <v>44104</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="4">
+        <v>100</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="118">
+        <v>50</v>
+      </c>
+      <c r="B51" s="47">
+        <v>44104</v>
+      </c>
+      <c r="C51" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="4">
+        <v>100</v>
+      </c>
+      <c r="F51" s="70" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4016,15 +4075,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4377,7 +4436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="28.8">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="30">
       <c r="A18" s="61">
         <v>17</v>
       </c>
@@ -4530,15 +4589,15 @@
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4564,7 +4623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -4585,7 +4644,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="45">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -4606,7 +4665,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="45">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4627,7 +4686,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4669,7 +4728,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -4690,7 +4749,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -4795,7 +4854,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -4858,7 +4917,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -4879,7 +4938,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="43.2">
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -5077,15 +5136,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5613,15 +5672,15 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5668,7 +5727,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5689,7 +5748,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5710,7 +5769,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5759,7 +5818,7 @@
       <c r="F7" s="109"/>
       <c r="G7" s="110"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5780,7 +5839,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5801,7 +5860,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5822,7 +5881,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5843,7 +5902,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5892,7 +5951,7 @@
       <c r="F14" s="109"/>
       <c r="G14" s="110"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5913,7 +5972,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5934,7 +5993,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5955,7 +6014,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5976,7 +6035,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="57.6">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -6025,7 +6084,7 @@
       <c r="F21" s="109"/>
       <c r="G21" s="110"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -6046,7 +6105,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6067,7 +6126,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -6088,7 +6147,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6109,7 +6168,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="43.2">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -6130,7 +6189,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="43.2">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6151,7 +6210,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="43.2">
+    <row r="28" spans="1:7" ht="60">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6172,7 +6231,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="43.2">
+    <row r="29" spans="1:7" ht="60">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6247,15 +6306,15 @@
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6834,15 +6893,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6945,16 +7004,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="94.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="94.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="94.6640625" style="24"/>
+    <col min="8" max="16384" width="94.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7537,7 +7596,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="28.8">
+    <row r="31" spans="1:7" ht="30">
       <c r="A31" s="14">
         <v>30</v>
       </c>
